--- a/imageCreationExcel/back/darkyobi/darkyobi_5.xlsx
+++ b/imageCreationExcel/back/darkyobi/darkyobi_5.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8084855729618703</v>
+        <v>0.6585172097053512</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5533269447312325</v>
+        <v>0.5907065587059752</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>27.03525033447209</v>
+        <v>10.727571612643</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_T_contrast0.81_sharpness0.55_equalization27.0.jpg</t>
+          <t>1_C_sharpness0.66_gamma0.59_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24.26821587813044</v>
+        <v>0.7673628747403983</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.7365247360741926</v>
+        <v>1.032395719891763</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5807590801856952</v>
+        <v>18.61446944897753</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_0_brightness24.0_sharpness0.74_gamma0.58.jpg</t>
+          <t>2_8_sharpness0.77_contrast1.0_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7920698976323883</v>
+        <v>0.760300047296353</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,22 +587,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.167136684091431</v>
+        <v>0.9102841958502799</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>28.60104213630216</v>
+        <v>11.49548263118468</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_9_sharpness0.79_contrast1.2_brightness29.0.jpg</t>
+          <t>3_P_gamma0.76_contrast0.91_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9666880110286971</v>
+        <v>0.6950927311580571</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5145048196380076</v>
+        <v>0.8765445710232971</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>25.24245021987982</v>
+        <v>19.46654983943707</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_8_contrast0.97_sharpness0.51_equalization25.0.jpg</t>
+          <t>4_T_gamma0.7_sharpness0.88_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9477857933154192</v>
+        <v>0.9144574377213163</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,22 +671,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.27366157458482</v>
+        <v>13.65623520471555</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.171241748531479</v>
+        <v>0.6331539580645558</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_S_gamma0.95_brightness4.3_contrast1.2.jpg</t>
+          <t>5_T_contrast0.91_brightness14.0_gamma0.63.jpg</t>
         </is>
       </c>
     </row>
@@ -696,16 +696,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.5293079102610728</v>
+        <v>0.1719275285505368</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>19.15848284648384</v>
+        <v>29.28117388050427</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.196064835475696</v>
+        <v>0.6166164072639153</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_T_gamma0.53_brightness19.0_contrast1.2.jpg</t>
+          <t>6_8_sharpness0.17_brightness29.0_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3138369565485853</v>
+        <v>0.5759635184243098</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.796212780113069</v>
+        <v>0.7767234797390637</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3.583317405850954</v>
+        <v>0.9623571858758635</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_I_sharpness0.31_gamma0.8_brightness3.6.jpg</t>
+          <t>7_1_gamma0.58_sharpness0.78_contrast0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,30 +789,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.032069020792941</v>
+        <v>0.9117195152926582</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9818521162636077</v>
+        <v>10.62159936675017</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.841980228210675</v>
+        <v>1.004833992916907</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_1_contrast1.0_sharpness0.98_equalization5.8.jpg</t>
+          <t>8_0_contrast0.91_brightness11.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8629811318520053</v>
+        <v>0.001087316147604822</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10.42448729760581</v>
+        <v>0.6962447849165996</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9970776004329497</v>
+        <v>20.50474191160474</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_E_contrast0.86_brightness10.0_gamma1.0.jpg</t>
+          <t>9_3_sharpness0.0011_gamma0.7_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1976711697015134</v>
+        <v>0.9900495214528869</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.121321930187969</v>
+        <v>1.17429250830354</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8.295583423545349</v>
+        <v>25.81002727795681</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_P_sharpness0.2_contrast1.1_equalization8.3.jpg</t>
+          <t>10_7_sharpness0.99_contrast1.2_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9861635193465522</v>
+        <v>1.05994805141764</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.689758701623493</v>
+        <v>10.53331712849215</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.03183166349847122</v>
+        <v>0.4387700786611989</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_1_contrast0.99_brightness7.7_sharpness0.032.jpg</t>
+          <t>11_E_contrast1.1_brightness11.0_sharpness0.44.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.03270622587758</v>
+        <v>0.6985863553542755</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7125133119276259</v>
+        <v>1.076638757799028</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>30.14308972866156</v>
+        <v>0.9413552462624505</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_T_gamma1.0_sharpness0.71_equalization30.0.jpg</t>
+          <t>12_2_sharpness0.7_contrast1.1_gamma0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6497344545240089</v>
+        <v>23.03883113920634</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.08994954562823</v>
+        <v>1.095058750878377</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10.11283857690303</v>
+        <v>0.937524604725324</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_C_sharpness0.65_contrast1.1_equalization10.0.jpg</t>
+          <t>13_1_brightness23.0_contrast1.1_gamma0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1037,11 +1037,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9194733339467949</v>
+        <v>0.6904012017506876</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.3768685782521574</v>
+        <v>0.9557996627557007</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9.500204853671026</v>
+        <v>4.160621423794257</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_8_contrast0.92_sharpness0.38_brightness9.5.jpg</t>
+          <t>14_8_gamma0.69_sharpness0.96_equalization4.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,16 +1074,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.102252794559002</v>
+        <v>0.000223023500506403</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,22 +1091,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9695025882095549</v>
+        <v>0.7314861733420592</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>24.32885222433496</v>
+        <v>0.9880591074083486</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_8_contrast1.1_gamma0.97_equalization24.0.jpg</t>
+          <t>15_9_sharpness0.00022_gamma0.73_contrast0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.357466829491656</v>
+        <v>0.5233703786671409</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.723451283921454</v>
+        <v>0.8983448181751394</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.8838115572352575</v>
+        <v>6.227705870297935</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_1_brightness4.4_gamma0.72_contrast0.88.jpg</t>
+          <t>16_9_sharpness0.52_contrast0.9_equalization6.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.596497978579842</v>
+        <v>0.8288814993353315</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9857032902142406</v>
+        <v>0.1431698489173189</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.9132647102450203</v>
+        <v>15.34606020115082</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_T_brightness2.6_contrast0.99_sharpness0.91.jpg</t>
+          <t>17_1_contrast0.83_sharpness0.14_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.4239729002772762</v>
+        <v>0.8468986562716779</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8976284122300775</v>
+        <v>11.54132149334387</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>19.52217650511932</v>
+        <v>0.8523398088688755</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_S_sharpness0.42_gamma0.9_brightness20.0.jpg</t>
+          <t>18_T_contrast0.85_brightness12.0_gamma0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.00915157798283</v>
+        <v>0.9553035285096672</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.6780002847471064</v>
+        <v>1.087284275718693</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>16.00218217381041</v>
+        <v>23.17145080503143</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_contrast1.0_sharpness0.68_equalization16.0.jpg</t>
+          <t>19_C_sharpness0.96_gamma1.1_brightness23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27.88280048759611</v>
+        <v>22.4956812655562</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.173515521200942</v>
+        <v>1.158950415325273</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5121545375269717</v>
+        <v>0.8428906207558522</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_I_brightness28.0_contrast1.2_gamma0.51.jpg</t>
+          <t>20_T_brightness22.0_contrast1.2_gamma0.84.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9120525893058256</v>
+        <v>0.6630495306370687</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.361069993688771</v>
+        <v>0.8996726834388586</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.034218104872374</v>
+        <v>4.198367907134653</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_8_gamma0.91_brightness2.4_contrast1.0.jpg</t>
+          <t>21_C_gamma0.66_sharpness0.9_equalization4.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1377,30 +1377,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5677281892016552</v>
+        <v>0.8552333536181076</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.143621095251178</v>
+        <v>11.44455817415016</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>28.69782600792888</v>
+        <v>0.8584410342386593</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_gamma0.57_contrast1.1_equalization29.0.jpg</t>
+          <t>22_0_gamma0.86_brightness11.0_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,30 +1419,30 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>27.55570772281911</v>
+        <v>26.92568008964064</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.1230555477147321</v>
+        <v>1.069121502134757</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.8208753858268245</v>
+        <v>1.133112230139646</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_1_brightness28.0_sharpness0.12_gamma0.82.jpg</t>
+          <t>23_S_brightness27.0_gamma1.1_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,24 +1452,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9776544500848162</v>
+        <v>0.9674473399221523</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.6193610914881489</v>
+        <v>0.9996566975740342</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>19.08608260953291</v>
+        <v>22.62647654595477</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_7_contrast0.98_sharpness0.62_equalization19.0.jpg</t>
+          <t>24_B_gamma0.97_contrast1.0_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.060021346521046</v>
+        <v>0.1679661178401098</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>16.97129075984354</v>
+        <v>0.8625604957157512</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.15266838017341</v>
+        <v>11.90561430867315</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_gamma1.1_brightness17.0_contrast1.2.jpg</t>
+          <t>25_E_sharpness0.17_contrast0.86_equalization12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.119106995174915</v>
+        <v>0.3457530026037962</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.8613314276639537</v>
+        <v>0.9677435443301216</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.8259232320350215</v>
+        <v>15.24524489532179</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_P_contrast1.1_sharpness0.86_gamma0.83.jpg</t>
+          <t>26_I_sharpness0.35_contrast0.97_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.9611576443390936</v>
+        <v>1.052801491857003</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>12.54349967963114</v>
+        <v>25.09366915186073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.5506983949476695</v>
+        <v>0.887971922566431</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_P_contrast0.96_brightness13.0_sharpness0.55.jpg</t>
+          <t>27_3_contrast1.1_brightness25.0_sharpness0.89.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.7522022789053948</v>
+        <v>1.077681824252134</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>18.97574574971248</v>
+        <v>0.5139388561402554</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.111759944061907</v>
+        <v>12.61924577394135</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_8_gamma0.75_brightness19.0_contrast1.1.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.51_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8945709867475777</v>
+        <v>0.5956994193203292</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.076625778674458</v>
+        <v>0.8012738200829796</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>29.69086606038531</v>
+        <v>21.67996086818284</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_sharpness0.89_contrast1.1_brightness30.0.jpg</t>
+          <t>29_P_gamma0.6_contrast0.8_equalization22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.7280092755750293</v>
+        <v>0.1037754346271309</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.74606376160022</v>
+        <v>0.8676228108171464</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.3816219825110492</v>
+        <v>13.76464564702529</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_1_gamma0.73_brightness3.7_sharpness0.38.jpg</t>
+          <t>30_S_sharpness0.1_gamma0.87_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.028741691867295</v>
+        <v>11.09902951539082</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5384146587371719</v>
+        <v>1.141368274742277</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>15.80772846016038</v>
+        <v>0.5715328682862642</v>
       </c>
       <c r="I32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_contrast1.0_sharpness0.54_equalization16.0.jpg</t>
+          <t>31_0_brightness11.0_contrast1.1_gamma0.57.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,39 +1788,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.054359633484279</v>
+        <v>27.89295737561061</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8704193484607864</v>
+        <v>1.129762444951588</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>21.60146381598365</v>
+        <v>0.4733922802357674</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_C_gamma1.1_sharpness0.87_brightness22.0.jpg</t>
+          <t>32_1_brightness28.0_contrast1.1_sharpness0.47.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.7437614796813418</v>
+        <v>29.61828508164072</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9704929096086673</v>
+        <v>0.07983467618745066</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>16.43824543614732</v>
+        <v>1.083753325108501</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_gamma0.74_contrast0.97_equalization16.0.jpg</t>
+          <t>33_1_brightness30.0_sharpness0.08_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,39 +1872,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.8861994449707086</v>
+        <v>0.7362591989326035</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.04933188455156</v>
+        <v>26.64574725312618</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9.212235503354272</v>
+        <v>0.997803821285856</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_contrast0.89_gamma1.0_equalization9.2.jpg</t>
+          <t>34_P_gamma0.74_brightness27.0_sharpness1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1914,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8615226515776324</v>
+        <v>0.8877172400363296</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12.24368278848543</v>
+        <v>0.636055131503089</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.8633528717292216</v>
+        <v>13.24196004420771</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_S_gamma0.86_brightness12.0_contrast0.86.jpg</t>
+          <t>35_E_contrast0.89_gamma0.64_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,16 +1956,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.5739438906334261</v>
+        <v>1.018968378999534</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,7 +1973,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.989194911509482</v>
+        <v>3.748207943975272</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.077647923118444</v>
+        <v>0.8018502498943106</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_C_sharpness0.57_brightness5.0_contrast1.1.jpg</t>
+          <t>36_1_gamma1.0_brightness3.7_contrast0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.062247110675685</v>
+        <v>0.8079807702955494</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.1481440096770434</v>
+        <v>0.630779000603091</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.7648692106138701</v>
+        <v>1.018550572528236</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_9_contrast1.1_sharpness0.15_gamma0.76.jpg</t>
+          <t>37_B_sharpness0.81_gamma0.63_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.5113682517411979</v>
+        <v>1.08280640739432</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5645163817362406</v>
+        <v>1.183284312976744</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>14.23931889004348</v>
+        <v>18.97097054278102</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_sharpness0.51_gamma0.56_equalization14.0.jpg</t>
+          <t>38_1_gamma1.1_contrast1.2_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.031394285551786</v>
+        <v>0.7486030294003592</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9107906100717104</v>
+        <v>1.154725353993351</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>13.36585540599442</v>
+        <v>18.25305530183266</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_0_gamma1.0_contrast0.91_equalization13.0.jpg</t>
+          <t>39_T_gamma0.75_contrast1.2_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9152519573561971</v>
+        <v>3.498381225955448</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.8555778686839302</v>
+        <v>0.09679713453644179</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>17.38033802544453</v>
+        <v>1.189442496792134</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_0_gamma0.92_contrast0.86_brightness17.0.jpg</t>
+          <t>40_3_brightness3.5_sharpness0.097_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,30 +2175,30 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8771204325707425</v>
+        <v>0.7138800349966195</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.015213246771216</v>
+        <v>17.76750846957928</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>14.49990686288101</v>
+        <v>0.7337812477108261</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_0_gamma0.88_contrast1.0_equalization14.0.jpg</t>
+          <t>41_7_gamma0.71_brightness18.0_sharpness0.73.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,15 +2217,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.847702439795653</v>
+        <v>0.817720125558679</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9903540998466237</v>
+        <v>0.7489443163611216</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>24.80044317643712</v>
+        <v>9.265418834498526</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_I_contrast0.85_gamma0.99_equalization25.0.jpg</t>
+          <t>42_7_contrast0.82_sharpness0.75_equalization9.3.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>12.75124649999011</v>
+        <v>24.50367428788757</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.11507014793531</v>
+        <v>0.8524246965707464</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.09296944208908708</v>
+        <v>0.8461355825606079</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_9_brightness13.0_contrast1.1_sharpness0.093.jpg</t>
+          <t>43_3_brightness25.0_contrast0.85_sharpness0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.063244175777158</v>
+        <v>0.6509834938977336</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.1248297575595363</v>
+        <v>15.18510099972929</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>28.70056424873522</v>
+        <v>0.8668364289989982</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_0_contrast1.1_sharpness0.12_equalization29.0.jpg</t>
+          <t>44_2_sharpness0.65_brightness15.0_contrast0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8382322265206719</v>
+        <v>1.061098069414508</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.862210468073524</v>
+        <v>0.6425093018575998</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.148815742529038</v>
+        <v>5.808624544085191</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_0_sharpness0.84_brightness3.9_contrast1.1.jpg</t>
+          <t>45_7_contrast1.1_gamma0.64_equalization5.8.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,16 +2376,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.7268005772996038</v>
+        <v>1.194123018994469</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,22 +2393,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6.068488062624423</v>
+        <v>27.54771632818044</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.9357923897514728</v>
+        <v>0.8102797080323429</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_gamma0.73_brightness6.1_contrast0.94.jpg</t>
+          <t>46_8_contrast1.2_brightness28.0_sharpness0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,15 +2427,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.588570599517415</v>
+        <v>0.6203432871158504</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5626494379650141</v>
+        <v>0.9485941627802883</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>16.5372219307802</v>
+        <v>18.18371794333115</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_2_gamma0.59_sharpness0.56_equalization17.0.jpg</t>
+          <t>47_0_gamma0.62_contrast0.95_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,15 +2469,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.4619738158313368</v>
+        <v>0.6700788137634682</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9759962338809804</v>
+        <v>0.5897610648596782</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>9.032961872269537</v>
+        <v>28.81075413858827</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_I_sharpness0.46_contrast0.98_equalization9.0.jpg</t>
+          <t>48_P_sharpness0.67_gamma0.59_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
